--- a/data/trans_orig/P16B11-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B11-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0878A854-EF92-4E60-BF81-6C079C1AA2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A20D64C-D7B6-4560-B307-24C55AB2A469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5D432B6B-88B8-4768-9A9D-E624BFB3CDCA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8537D04D-2F28-47A8-9DBE-1BD65B3D4AC9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="203">
   <si>
     <t>Porcentaje de medicinas para la tensión arterial recetados en 2007 (Tasa respuesta: 14,82%)</t>
   </si>
@@ -106,13 +106,13 @@
     <t>81,67%</t>
   </si>
   <si>
-    <t>20,33%</t>
+    <t>22,25%</t>
   </si>
   <si>
     <t>86,65%</t>
   </si>
   <si>
-    <t>34,99%</t>
+    <t>43,66%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -121,13 +121,13 @@
     <t>18,33%</t>
   </si>
   <si>
-    <t>79,67%</t>
+    <t>77,75%</t>
   </si>
   <si>
     <t>13,35%</t>
   </si>
   <si>
-    <t>65,01%</t>
+    <t>56,34%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -139,13 +139,13 @@
     <t>96,35%</t>
   </si>
   <si>
-    <t>81,84%</t>
+    <t>84,7%</t>
   </si>
   <si>
     <t>97,72%</t>
   </si>
   <si>
-    <t>90,65%</t>
+    <t>89,75%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -154,13 +154,13 @@
     <t>3,65%</t>
   </si>
   <si>
-    <t>18,16%</t>
+    <t>15,3%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>9,35%</t>
+    <t>10,25%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -169,43 +169,43 @@
     <t>96,74%</t>
   </si>
   <si>
-    <t>89,63%</t>
+    <t>89,54%</t>
   </si>
   <si>
     <t>96,45%</t>
   </si>
   <si>
-    <t>87,52%</t>
+    <t>87,36%</t>
   </si>
   <si>
     <t>96,61%</t>
   </si>
   <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
   </si>
   <si>
     <t>3,26%</t>
   </si>
   <si>
-    <t>10,37%</t>
+    <t>10,46%</t>
   </si>
   <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>12,48%</t>
+    <t>12,64%</t>
   </si>
   <si>
     <t>3,39%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -214,409 +214,439 @@
     <t>95,98%</t>
   </si>
   <si>
-    <t>91,0%</t>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
   </si>
   <si>
     <t>98,51%</t>
   </si>
   <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para la tensión arterial recetados en 2012 (Tasa respuesta: 18,47%)</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
   </si>
   <si>
     <t>98,84%</t>
   </si>
   <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
   </si>
   <si>
     <t>1,16%</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
+    <t>4,07%</t>
   </si>
   <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para la tensión arterial recetados en 2015 (Tasa respuesta: 15,54%)</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
   </si>
   <si>
     <t>98,85%</t>
   </si>
   <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para la tensión arterial recetados en 2012 (Tasa respuesta: 18,47%)</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para la tensión arterial recetados en 2015 (Tasa respuesta: 15,54%)</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>0,59%</t>
+    <t>0,69%</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A68767A-BD17-4AC7-804B-11E111AF2E92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD75ABD7-8F81-4D6B-9624-9F7E58FC387A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1936,13 +1966,13 @@
         <v>339384</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M19" s="7">
         <v>544</v>
@@ -1951,13 +1981,13 @@
         <v>547869</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,13 +2002,13 @@
         <v>2546</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -1987,13 +2017,13 @@
         <v>5128</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -2002,13 +2032,13 @@
         <v>7674</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2076,13 +2106,13 @@
         <v>403333</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H22" s="7">
         <v>535</v>
@@ -2091,13 +2121,13 @@
         <v>550433</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M22" s="7">
         <v>944</v>
@@ -2106,13 +2136,13 @@
         <v>953765</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2127,13 +2157,13 @@
         <v>9382</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H23" s="7">
         <v>11</v>
@@ -2142,13 +2172,13 @@
         <v>10917</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="M23" s="7">
         <v>21</v>
@@ -2241,7 +2271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D16487F-3D34-469C-A18D-385DFA104600}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA1F111-1851-4896-8A62-F1A27938BA0E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2857,7 +2887,7 @@
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -2881,7 +2911,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2896,7 +2926,7 @@
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2911,7 +2941,7 @@
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,7 +3012,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -2994,10 +3024,10 @@
         <v>174739</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -3009,10 +3039,10 @@
         <v>326086</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -3036,7 +3066,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -3045,13 +3075,13 @@
         <v>2044</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -3060,13 +3090,13 @@
         <v>2044</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,10 +3164,10 @@
         <v>305341</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>11</v>
@@ -3149,10 +3179,10 @@
         <v>448345</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -3164,10 +3194,10 @@
         <v>753684</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -3185,13 +3215,13 @@
         <v>977</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3200,13 +3230,13 @@
         <v>987</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -3215,13 +3245,13 @@
         <v>1965</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3289,10 +3319,10 @@
         <v>566511</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>11</v>
@@ -3304,13 +3334,13 @@
         <v>735255</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>1198</v>
@@ -3319,13 +3349,13 @@
         <v>1301764</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3370,13 @@
         <v>977</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -3355,13 +3385,13 @@
         <v>3031</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -3370,13 +3400,13 @@
         <v>4009</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,7 +3484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDCB0306-4363-4E63-BA02-07C2F3DED3BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5664EBB-99F7-439D-B469-CD06D67E52E4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3471,7 +3501,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3885,7 +3915,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -3900,7 +3930,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -3915,7 +3945,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3939,7 +3969,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3954,7 +3984,7 @@
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3969,7 +3999,7 @@
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,7 +4070,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -4052,10 +4082,10 @@
         <v>59239</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -4067,10 +4097,10 @@
         <v>148116</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>167</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -4094,7 +4124,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -4103,13 +4133,13 @@
         <v>1089</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -4118,13 +4148,13 @@
         <v>1089</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>172</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,7 +4225,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -4210,7 +4240,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -4225,7 +4255,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -4249,7 +4279,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4264,7 +4294,7 @@
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4279,7 +4309,7 @@
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4344,13 +4374,13 @@
         <v>295</v>
       </c>
       <c r="D19" s="7">
-        <v>275863</v>
+        <v>275864</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -4359,13 +4389,13 @@
         <v>323</v>
       </c>
       <c r="I19" s="7">
-        <v>391871</v>
+        <v>391872</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>59</v>
+        <v>187</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -4377,10 +4407,10 @@
         <v>667735</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -4404,7 +4434,7 @@
         <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4413,13 +4443,13 @@
         <v>973</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>66</v>
+        <v>192</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4428,13 +4458,13 @@
         <v>973</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,7 +4476,7 @@
         <v>295</v>
       </c>
       <c r="D21" s="7">
-        <v>275863</v>
+        <v>275864</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>13</v>
@@ -4461,7 +4491,7 @@
         <v>324</v>
       </c>
       <c r="I21" s="7">
-        <v>392844</v>
+        <v>392845</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>13</v>
@@ -4517,10 +4547,10 @@
         <v>614864</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>11</v>
@@ -4532,10 +4562,10 @@
         <v>1113092</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>11</v>
@@ -4559,7 +4589,7 @@
         <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -4568,13 +4598,13 @@
         <v>2062</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -4583,13 +4613,13 @@
         <v>2062</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B11-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B11-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A20D64C-D7B6-4560-B307-24C55AB2A469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADE994F7-12DA-4758-A95D-3004C035C558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8537D04D-2F28-47A8-9DBE-1BD65B3D4AC9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D89826C5-32B8-4DDE-A93C-8A958FD3F692}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="205">
   <si>
     <t>Porcentaje de medicinas para la tensión arterial recetados en 2007 (Tasa respuesta: 14,82%)</t>
   </si>
@@ -106,13 +106,13 @@
     <t>81,67%</t>
   </si>
   <si>
-    <t>22,25%</t>
+    <t>21,98%</t>
   </si>
   <si>
     <t>86,65%</t>
   </si>
   <si>
-    <t>43,66%</t>
+    <t>44,49%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -121,13 +121,13 @@
     <t>18,33%</t>
   </si>
   <si>
-    <t>77,75%</t>
+    <t>78,02%</t>
   </si>
   <si>
     <t>13,35%</t>
   </si>
   <si>
-    <t>56,34%</t>
+    <t>55,51%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -139,13 +139,13 @@
     <t>96,35%</t>
   </si>
   <si>
-    <t>84,7%</t>
+    <t>81,59%</t>
   </si>
   <si>
     <t>97,72%</t>
   </si>
   <si>
-    <t>89,75%</t>
+    <t>90,12%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -154,13 +154,13 @@
     <t>3,65%</t>
   </si>
   <si>
-    <t>15,3%</t>
+    <t>18,41%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>10,25%</t>
+    <t>9,88%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -169,43 +169,43 @@
     <t>96,74%</t>
   </si>
   <si>
-    <t>89,54%</t>
+    <t>89,94%</t>
   </si>
   <si>
     <t>96,45%</t>
   </si>
   <si>
-    <t>87,36%</t>
+    <t>87,63%</t>
   </si>
   <si>
     <t>96,61%</t>
   </si>
   <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
   </si>
   <si>
     <t>3,26%</t>
   </si>
   <si>
-    <t>10,46%</t>
+    <t>10,06%</t>
   </si>
   <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>12,64%</t>
+    <t>12,37%</t>
   </si>
   <si>
     <t>3,39%</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -214,49 +214,49 @@
     <t>95,98%</t>
   </si>
   <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
   </si>
   <si>
     <t>98,47%</t>
   </si>
   <si>
-    <t>95,07%</t>
+    <t>94,61%</t>
   </si>
   <si>
     <t>97,29%</t>
   </si>
   <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
   </si>
   <si>
     <t>4,02%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
   </si>
   <si>
     <t>1,53%</t>
   </si>
   <si>
-    <t>4,93%</t>
+    <t>5,39%</t>
   </si>
   <si>
     <t>2,71%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -265,7 +265,7 @@
     <t>98,79%</t>
   </si>
   <si>
-    <t>96,34%</t>
+    <t>96,39%</t>
   </si>
   <si>
     <t>99,61%</t>
@@ -274,19 +274,19 @@
     <t>98,51%</t>
   </si>
   <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
   </si>
   <si>
     <t>98,62%</t>
   </si>
   <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
   </si>
   <si>
     <t>1,21%</t>
@@ -295,73 +295,79 @@
     <t>0,39%</t>
   </si>
   <si>
-    <t>3,66%</t>
+    <t>3,61%</t>
   </si>
   <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
   </si>
   <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
   </si>
   <si>
     <t>97,73%</t>
   </si>
   <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
   </si>
   <si>
     <t>98,06%</t>
   </si>
   <si>
-    <t>98,94%</t>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
   </si>
   <si>
     <t>97,92%</t>
   </si>
   <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
   </si>
   <si>
     <t>2,27%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
   </si>
   <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>1,06%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -430,13 +436,13 @@
     <t>98,84%</t>
   </si>
   <si>
-    <t>95,93%</t>
+    <t>96,13%</t>
   </si>
   <si>
     <t>99,38%</t>
   </si>
   <si>
-    <t>97,83%</t>
+    <t>98,12%</t>
   </si>
   <si>
     <t>1,39%</t>
@@ -445,208 +451,208 @@
     <t>1,16%</t>
   </si>
   <si>
-    <t>4,07%</t>
+    <t>3,87%</t>
   </si>
   <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>2,17%</t>
+    <t>1,88%</t>
   </si>
   <si>
     <t>99,68%</t>
   </si>
   <si>
-    <t>98,41%</t>
+    <t>98,46%</t>
   </si>
   <si>
     <t>99,78%</t>
   </si>
   <si>
-    <t>98,67%</t>
+    <t>98,9%</t>
   </si>
   <si>
     <t>99,74%</t>
   </si>
   <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para la tensión arterial recetados en 2016 (Tasa respuesta: 15,54%)</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
     <t>99,15%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para la tensión arterial recetados en 2015 (Tasa respuesta: 15,54%)</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
     <t>99,75%</t>
   </si>
   <si>
-    <t>98,74%</t>
+    <t>98,49%</t>
   </si>
   <si>
     <t>99,85%</t>
   </si>
   <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
+    <t>99,26%</t>
   </si>
   <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>1,26%</t>
+    <t>1,51%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>0,88%</t>
+    <t>0,74%</t>
   </si>
   <si>
     <t>99,67%</t>
   </si>
   <si>
-    <t>98,85%</t>
+    <t>98,83%</t>
   </si>
   <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>99,31%</t>
+    <t>99,36%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>1,15%</t>
+    <t>1,17%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>0,69%</t>
+    <t>0,64%</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD75ABD7-8F81-4D6B-9624-9F7E58FC387A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B458535A-B104-4000-BD25-B837B98259BD}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2124,10 +2130,10 @@
         <v>95</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M22" s="7">
         <v>944</v>
@@ -2136,13 +2142,13 @@
         <v>953765</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2157,13 +2163,13 @@
         <v>9382</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H23" s="7">
         <v>11</v>
@@ -2172,13 +2178,13 @@
         <v>10917</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="M23" s="7">
         <v>21</v>
@@ -2187,13 +2193,13 @@
         <v>20299</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,7 +2255,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2271,7 +2277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA1F111-1851-4896-8A62-F1A27938BA0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B15563C-B169-4034-9AA0-5774E64C6021}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2288,7 +2294,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2547,7 +2553,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2562,7 +2568,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2577,7 +2583,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2601,7 +2607,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2616,7 +2622,7 @@
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2631,7 +2637,7 @@
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2702,7 +2708,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -2717,7 +2723,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -2732,7 +2738,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2756,7 +2762,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2771,7 +2777,7 @@
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2786,7 +2792,7 @@
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2857,7 +2863,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -2872,7 +2878,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -2887,7 +2893,7 @@
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -2911,7 +2917,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2926,7 +2932,7 @@
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2941,7 +2947,7 @@
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3012,7 +3018,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -3024,10 +3030,10 @@
         <v>174739</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -3036,13 +3042,13 @@
         <v>297</v>
       </c>
       <c r="N16" s="7">
-        <v>326086</v>
+        <v>326087</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -3066,7 +3072,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -3075,13 +3081,13 @@
         <v>2044</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -3090,13 +3096,13 @@
         <v>2044</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,7 +3144,7 @@
         <v>299</v>
       </c>
       <c r="N18" s="7">
-        <v>328130</v>
+        <v>328131</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -3164,10 +3170,10 @@
         <v>305341</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>11</v>
@@ -3179,10 +3185,10 @@
         <v>448345</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -3194,10 +3200,10 @@
         <v>753684</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -3215,13 +3221,13 @@
         <v>977</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3230,13 +3236,13 @@
         <v>987</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -3245,13 +3251,13 @@
         <v>1965</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,10 +3325,10 @@
         <v>566511</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>11</v>
@@ -3334,13 +3340,13 @@
         <v>735255</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>1198</v>
@@ -3349,13 +3355,13 @@
         <v>1301764</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3370,13 +3376,13 @@
         <v>977</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -3385,13 +3391,13 @@
         <v>3031</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -3462,7 +3468,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3484,7 +3490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5664EBB-99F7-439D-B469-CD06D67E52E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB223BD-F487-4FFA-932D-969821301EB3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3760,7 +3766,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -3790,7 +3796,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -3814,7 +3820,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3844,7 +3850,7 @@
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,7 +4106,7 @@
         <v>176</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -4124,7 +4130,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -4133,13 +4139,13 @@
         <v>1089</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -4148,13 +4154,13 @@
         <v>1089</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>37</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4225,7 +4231,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -4240,7 +4246,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -4255,7 +4261,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -4279,7 +4285,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4294,7 +4300,7 @@
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4309,7 +4315,7 @@
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4380,7 +4386,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>185</v>
+        <v>82</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -4392,10 +4398,10 @@
         <v>391872</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -4407,10 +4413,10 @@
         <v>667735</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -4434,7 +4440,7 @@
         <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4443,13 +4449,13 @@
         <v>973</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4458,13 +4464,13 @@
         <v>973</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4547,10 +4553,10 @@
         <v>614864</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>11</v>
@@ -4562,10 +4568,10 @@
         <v>1113092</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>11</v>
@@ -4598,13 +4604,13 @@
         <v>2062</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -4613,13 +4619,13 @@
         <v>2062</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,7 +4681,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B11-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B11-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADE994F7-12DA-4758-A95D-3004C035C558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AB8DC79-6C13-4A7F-8E89-A6F85CAE0680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D89826C5-32B8-4DDE-A93C-8A958FD3F692}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9CA48F59-A1BF-4EA1-B682-1F87EC8D6034}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="193">
   <si>
     <t>Porcentaje de medicinas para la tensión arterial recetados en 2007 (Tasa respuesta: 14,82%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -106,13 +106,13 @@
     <t>81,67%</t>
   </si>
   <si>
-    <t>21,98%</t>
+    <t>20,33%</t>
   </si>
   <si>
     <t>86,65%</t>
   </si>
   <si>
-    <t>44,49%</t>
+    <t>34,99%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -121,13 +121,13 @@
     <t>18,33%</t>
   </si>
   <si>
-    <t>78,02%</t>
+    <t>79,67%</t>
   </si>
   <si>
     <t>13,35%</t>
   </si>
   <si>
-    <t>55,51%</t>
+    <t>65,01%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -139,13 +139,13 @@
     <t>96,35%</t>
   </si>
   <si>
-    <t>81,59%</t>
+    <t>81,84%</t>
   </si>
   <si>
     <t>97,72%</t>
   </si>
   <si>
-    <t>90,12%</t>
+    <t>90,65%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -154,13 +154,13 @@
     <t>3,65%</t>
   </si>
   <si>
-    <t>18,41%</t>
+    <t>18,16%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>9,88%</t>
+    <t>9,35%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -169,19 +169,19 @@
     <t>96,74%</t>
   </si>
   <si>
-    <t>89,94%</t>
+    <t>89,63%</t>
   </si>
   <si>
     <t>96,45%</t>
   </si>
   <si>
-    <t>87,63%</t>
+    <t>87,52%</t>
   </si>
   <si>
     <t>96,61%</t>
   </si>
   <si>
-    <t>91,33%</t>
+    <t>92,12%</t>
   </si>
   <si>
     <t>99,01%</t>
@@ -190,13 +190,13 @@
     <t>3,26%</t>
   </si>
   <si>
-    <t>10,06%</t>
+    <t>10,37%</t>
   </si>
   <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>12,37%</t>
+    <t>12,48%</t>
   </si>
   <si>
     <t>3,39%</t>
@@ -205,7 +205,7 @@
     <t>0,99%</t>
   </si>
   <si>
-    <t>8,67%</t>
+    <t>7,88%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -214,49 +214,49 @@
     <t>95,98%</t>
   </si>
   <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
   </si>
   <si>
     <t>98,47%</t>
   </si>
   <si>
-    <t>94,61%</t>
+    <t>94,47%</t>
   </si>
   <si>
     <t>97,29%</t>
   </si>
   <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
   </si>
   <si>
     <t>4,02%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
   </si>
   <si>
     <t>1,53%</t>
   </si>
   <si>
-    <t>5,39%</t>
+    <t>5,53%</t>
   </si>
   <si>
     <t>2,71%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -265,394 +265,358 @@
     <t>98,79%</t>
   </si>
   <si>
-    <t>96,39%</t>
+    <t>96,66%</t>
   </si>
   <si>
     <t>99,61%</t>
   </si>
   <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
   </si>
   <si>
     <t>98,62%</t>
   </si>
   <si>
-    <t>97,34%</t>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para la tensión arterial recetados en 2012 (Tasa respuesta: 18,47%)</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para la tensión arterial recetados en 2016 (Tasa respuesta: 15,54%)</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
   </si>
   <si>
     <t>99,35%</t>
   </si>
   <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
   </si>
   <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para la tensión arterial recetados en 2012 (Tasa respuesta: 18,47%)</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para la tensión arterial recetados en 2016 (Tasa respuesta: 15,54%)</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
     <t>99,67%</t>
   </si>
   <si>
-    <t>98,83%</t>
+    <t>98,96%</t>
   </si>
   <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>99,36%</t>
+    <t>99,41%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>1,17%</t>
+    <t>1,04%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>0,64%</t>
+    <t>0,59%</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B458535A-B104-4000-BD25-B837B98259BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28AA37D6-49F9-4263-8F98-E687FA23A03B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1972,13 +1936,13 @@
         <v>339384</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M19" s="7">
         <v>544</v>
@@ -1987,13 +1951,13 @@
         <v>547869</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2008,13 +1972,13 @@
         <v>2546</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -2023,13 +1987,13 @@
         <v>5128</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -2038,13 +2002,13 @@
         <v>7674</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2112,13 +2076,13 @@
         <v>403333</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H22" s="7">
         <v>535</v>
@@ -2127,13 +2091,13 @@
         <v>550433</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M22" s="7">
         <v>944</v>
@@ -2142,13 +2106,13 @@
         <v>953765</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2163,13 +2127,13 @@
         <v>9382</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H23" s="7">
         <v>11</v>
@@ -2178,13 +2142,13 @@
         <v>10917</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M23" s="7">
         <v>21</v>
@@ -2193,13 +2157,13 @@
         <v>20299</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2255,7 +2219,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2277,7 +2241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B15563C-B169-4034-9AA0-5774E64C6021}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FF742E-9338-46C9-A7BD-94C0B571CE01}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2294,7 +2258,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2553,7 +2517,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2568,7 +2532,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2583,7 +2547,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2607,7 +2571,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2622,7 +2586,7 @@
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2637,7 +2601,7 @@
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,7 +2672,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -2723,7 +2687,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -2738,7 +2702,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2762,7 +2726,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2777,7 +2741,7 @@
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2792,7 +2756,7 @@
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2863,7 +2827,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -2878,7 +2842,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -2893,7 +2857,7 @@
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -2917,7 +2881,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2932,7 +2896,7 @@
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2947,7 +2911,7 @@
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,7 +2982,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -3030,10 +2994,10 @@
         <v>174739</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -3042,13 +3006,13 @@
         <v>297</v>
       </c>
       <c r="N16" s="7">
-        <v>326087</v>
+        <v>326086</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -3072,7 +3036,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -3081,13 +3045,13 @@
         <v>2044</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>137</v>
+        <v>65</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -3096,13 +3060,13 @@
         <v>2044</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3144,7 +3108,7 @@
         <v>299</v>
       </c>
       <c r="N18" s="7">
-        <v>328131</v>
+        <v>328130</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -3170,10 +3134,10 @@
         <v>305341</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>11</v>
@@ -3185,10 +3149,10 @@
         <v>448345</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -3200,10 +3164,10 @@
         <v>753684</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -3221,13 +3185,13 @@
         <v>977</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3236,13 +3200,13 @@
         <v>987</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -3251,13 +3215,13 @@
         <v>1965</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,10 +3289,10 @@
         <v>566511</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>11</v>
@@ -3340,13 +3304,13 @@
         <v>735255</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>1198</v>
@@ -3355,13 +3319,13 @@
         <v>1301764</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3376,13 +3340,13 @@
         <v>977</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -3391,13 +3355,13 @@
         <v>3031</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -3406,13 +3370,13 @@
         <v>4009</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,7 +3432,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3490,7 +3454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB223BD-F487-4FFA-932D-969821301EB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C348BA-87B2-4E2C-B07B-9A12CF0456BA}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3507,7 +3471,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3766,7 +3730,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -3796,7 +3760,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -3820,7 +3784,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3850,7 +3814,7 @@
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3921,7 +3885,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -3936,7 +3900,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -3951,7 +3915,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3975,7 +3939,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3990,7 +3954,7 @@
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4005,7 +3969,7 @@
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,7 +4040,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -4088,10 +4052,10 @@
         <v>59239</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -4103,10 +4067,10 @@
         <v>148116</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -4130,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -4139,13 +4103,13 @@
         <v>1089</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -4154,13 +4118,13 @@
         <v>1089</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4231,7 +4195,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -4246,7 +4210,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -4261,7 +4225,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -4285,7 +4249,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4300,7 +4264,7 @@
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4315,7 +4279,7 @@
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4380,13 +4344,13 @@
         <v>295</v>
       </c>
       <c r="D19" s="7">
-        <v>275864</v>
+        <v>275863</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -4395,13 +4359,13 @@
         <v>323</v>
       </c>
       <c r="I19" s="7">
-        <v>391872</v>
+        <v>391871</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>190</v>
+        <v>59</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -4413,10 +4377,10 @@
         <v>667735</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -4440,7 +4404,7 @@
         <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>90</v>
+        <v>182</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4449,13 +4413,13 @@
         <v>973</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>194</v>
+        <v>66</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4464,13 +4428,13 @@
         <v>973</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,7 +4446,7 @@
         <v>295</v>
       </c>
       <c r="D21" s="7">
-        <v>275864</v>
+        <v>275863</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>13</v>
@@ -4497,7 +4461,7 @@
         <v>324</v>
       </c>
       <c r="I21" s="7">
-        <v>392845</v>
+        <v>392844</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>13</v>
@@ -4553,10 +4517,10 @@
         <v>614864</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>11</v>
@@ -4568,10 +4532,10 @@
         <v>1113092</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>11</v>
@@ -4595,7 +4559,7 @@
         <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -4604,13 +4568,13 @@
         <v>2062</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -4619,13 +4583,13 @@
         <v>2062</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4681,7 +4645,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B11-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B11-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AB8DC79-6C13-4A7F-8E89-A6F85CAE0680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7683C930-9593-48E6-BB72-9F09C861E35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9CA48F59-A1BF-4EA1-B682-1F87EC8D6034}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8ECFBC15-1977-4FA2-87A3-205A06D7E4B7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="212">
   <si>
     <t>Porcentaje de medicinas para la tensión arterial recetados en 2007 (Tasa respuesta: 14,82%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -97,7 +97,7 @@
     <t>77,15%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -130,7 +130,7 @@
     <t>65,01%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>89,47%</t>
@@ -163,7 +163,7 @@
     <t>9,35%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>96,74%</t>
@@ -208,7 +208,7 @@
     <t>7,88%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>95,98%</t>
@@ -259,354 +259,414 @@
     <t>5,37%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para la tensión arterial recetados en 2012 (Tasa respuesta: 18,47%)</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para la tensión arterial recetados en 2016 (Tasa respuesta: 15,54%)</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
   </si>
   <si>
     <t>99,61%</t>
   </si>
   <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para la tensión arterial recetados en 2012 (Tasa respuesta: 18,47%)</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para la tensión arterial recetados en 2016 (Tasa respuesta: 15,54%)</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
     <t>0,33%</t>
   </si>
   <si>
@@ -614,9 +674,6 @@
   </si>
   <si>
     <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
   </si>
 </sst>
 </file>
@@ -1028,8 +1085,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28AA37D6-49F9-4263-8F98-E687FA23A03B}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A61B626-4857-4B19-839E-032DFB7F9B3C}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1915,49 +1972,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>216</v>
+        <v>116</v>
       </c>
       <c r="D19" s="7">
-        <v>208485</v>
+        <v>110910</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="7">
+        <v>167</v>
+      </c>
+      <c r="I19" s="7">
+        <v>154321</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H19" s="7">
-        <v>328</v>
-      </c>
-      <c r="I19" s="7">
-        <v>339384</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>283</v>
+      </c>
+      <c r="N19" s="7">
+        <v>265232</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="M19" s="7">
-        <v>544</v>
-      </c>
-      <c r="N19" s="7">
-        <v>547869</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1966,49 +2023,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1674</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="7">
         <v>3</v>
       </c>
-      <c r="D20" s="7">
-        <v>2546</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="I20" s="7">
+        <v>2742</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H20" s="7">
+      <c r="M20" s="7">
         <v>5</v>
       </c>
-      <c r="I20" s="7">
-        <v>5128</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K20" s="7" t="s">
+      <c r="N20" s="7">
+        <v>4416</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="M20" s="7">
-        <v>8</v>
-      </c>
-      <c r="N20" s="7">
-        <v>7674</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2017,10 +2074,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>219</v>
+        <v>118</v>
       </c>
       <c r="D21" s="7">
-        <v>211031</v>
+        <v>112584</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>13</v>
@@ -2032,10 +2089,10 @@
         <v>13</v>
       </c>
       <c r="H21" s="7">
-        <v>333</v>
+        <v>170</v>
       </c>
       <c r="I21" s="7">
-        <v>344512</v>
+        <v>157063</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>13</v>
@@ -2047,10 +2104,10 @@
         <v>13</v>
       </c>
       <c r="M21" s="7">
-        <v>552</v>
+        <v>288</v>
       </c>
       <c r="N21" s="7">
-        <v>555543</v>
+        <v>269648</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>
@@ -2064,55 +2121,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>409</v>
+        <v>100</v>
       </c>
       <c r="D22" s="7">
-        <v>403333</v>
+        <v>97574</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="7">
+        <v>161</v>
+      </c>
+      <c r="I22" s="7">
+        <v>185063</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H22" s="7">
-        <v>535</v>
-      </c>
-      <c r="I22" s="7">
-        <v>550433</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22" s="7">
+        <v>261</v>
+      </c>
+      <c r="N22" s="7">
+        <v>282638</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="M22" s="7">
-        <v>944</v>
-      </c>
-      <c r="N22" s="7">
-        <v>953765</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2121,49 +2178,49 @@
         <v>15</v>
       </c>
       <c r="C23" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>9382</v>
+        <v>872</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H23" s="7">
+        <v>2</v>
+      </c>
+      <c r="I23" s="7">
+        <v>2386</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>3</v>
+      </c>
+      <c r="N23" s="7">
+        <v>3257</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H23" s="7">
-        <v>11</v>
-      </c>
-      <c r="I23" s="7">
-        <v>10917</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="M23" s="7">
-        <v>21</v>
-      </c>
-      <c r="N23" s="7">
-        <v>20299</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2172,63 +2229,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>101</v>
+      </c>
+      <c r="D24" s="7">
+        <v>98446</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="7">
+        <v>163</v>
+      </c>
+      <c r="I24" s="7">
+        <v>187449</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="7">
+        <v>264</v>
+      </c>
+      <c r="N24" s="7">
+        <v>285895</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>409</v>
+      </c>
+      <c r="D25" s="7">
+        <v>403333</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" s="7">
+        <v>535</v>
+      </c>
+      <c r="I25" s="7">
+        <v>550433</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M25" s="7">
+        <v>944</v>
+      </c>
+      <c r="N25" s="7">
+        <v>953765</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>10</v>
+      </c>
+      <c r="D26" s="7">
+        <v>9382</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" s="7">
+        <v>11</v>
+      </c>
+      <c r="I26" s="7">
+        <v>10917</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M26" s="7">
+        <v>21</v>
+      </c>
+      <c r="N26" s="7">
+        <v>20299</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>419</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>412715</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7">
         <v>546</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>561350</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="7">
         <v>965</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>974064</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>108</v>
+      <c r="O27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2241,8 +2454,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FF742E-9338-46C9-A7BD-94C0B571CE01}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7037F356-FD98-4EEB-83C5-98EB9028C878}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2258,7 +2471,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2517,7 +2730,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2532,7 +2745,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2547,7 +2760,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2571,7 +2784,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2586,7 +2799,7 @@
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2601,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,7 +2885,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -2687,7 +2900,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -2702,7 +2915,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2726,7 +2939,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2741,7 +2954,7 @@
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2756,7 +2969,7 @@
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2827,7 +3040,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -2842,7 +3055,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -2857,7 +3070,7 @@
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -2881,7 +3094,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2896,7 +3109,7 @@
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2911,7 +3124,7 @@
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,7 +3195,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -3006,13 +3219,13 @@
         <v>297</v>
       </c>
       <c r="N16" s="7">
-        <v>326086</v>
+        <v>326087</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -3036,7 +3249,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -3060,13 +3273,13 @@
         <v>2044</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,7 +3321,7 @@
         <v>299</v>
       </c>
       <c r="N18" s="7">
-        <v>328130</v>
+        <v>328131</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -3128,46 +3341,46 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>278</v>
+        <v>144</v>
       </c>
       <c r="D19" s="7">
-        <v>305341</v>
+        <v>156614</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>419</v>
+        <v>193</v>
       </c>
       <c r="I19" s="7">
-        <v>448345</v>
+        <v>197953</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M19" s="7">
-        <v>697</v>
+        <v>337</v>
       </c>
       <c r="N19" s="7">
-        <v>753684</v>
+        <v>354566</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -3185,13 +3398,13 @@
         <v>977</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3200,13 +3413,13 @@
         <v>987</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -3215,13 +3428,13 @@
         <v>1965</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,10 +3443,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>279</v>
+        <v>145</v>
       </c>
       <c r="D21" s="7">
-        <v>306318</v>
+        <v>157591</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>13</v>
@@ -3245,10 +3458,10 @@
         <v>13</v>
       </c>
       <c r="H21" s="7">
-        <v>420</v>
+        <v>194</v>
       </c>
       <c r="I21" s="7">
-        <v>449332</v>
+        <v>198940</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>13</v>
@@ -3260,10 +3473,10 @@
         <v>13</v>
       </c>
       <c r="M21" s="7">
-        <v>699</v>
+        <v>339</v>
       </c>
       <c r="N21" s="7">
-        <v>755649</v>
+        <v>356531</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>
@@ -3277,55 +3490,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>516</v>
+        <v>134</v>
       </c>
       <c r="D22" s="7">
-        <v>566511</v>
+        <v>148727</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H22" s="7">
-        <v>682</v>
+        <v>226</v>
       </c>
       <c r="I22" s="7">
-        <v>735255</v>
+        <v>250391</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M22" s="7">
-        <v>1198</v>
+        <v>360</v>
       </c>
       <c r="N22" s="7">
-        <v>1301764</v>
+        <v>399118</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>148</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,49 +3547,49 @@
         <v>15</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>977</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H23" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>3031</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="M23" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>4009</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3385,63 +3598,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>134</v>
+      </c>
+      <c r="D24" s="7">
+        <v>148727</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="7">
+        <v>226</v>
+      </c>
+      <c r="I24" s="7">
+        <v>250391</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="7">
+        <v>360</v>
+      </c>
+      <c r="N24" s="7">
+        <v>399118</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>516</v>
+      </c>
+      <c r="D25" s="7">
+        <v>566511</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7">
+        <v>682</v>
+      </c>
+      <c r="I25" s="7">
+        <v>735255</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1198</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1301764</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>977</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3031</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4009</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>517</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>567488</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7">
         <v>685</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>738286</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="7">
         <v>1202</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>1305773</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>108</v>
+      <c r="O27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3454,8 +3823,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C348BA-87B2-4E2C-B07B-9A12CF0456BA}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CE6361-9936-483C-8B01-4A6C5E089C8D}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3471,7 +3840,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3730,7 +4099,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -3760,7 +4129,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -3784,7 +4153,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3814,7 +4183,7 @@
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,7 +4254,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -3900,7 +4269,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -3915,7 +4284,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3939,7 +4308,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3954,7 +4323,7 @@
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3969,7 +4338,7 @@
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,7 +4409,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -4052,10 +4421,10 @@
         <v>59239</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -4067,10 +4436,10 @@
         <v>148116</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -4094,7 +4463,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -4103,13 +4472,13 @@
         <v>1089</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -4118,13 +4487,13 @@
         <v>1089</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,7 +4564,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -4210,7 +4579,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -4225,7 +4594,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -4249,7 +4618,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4264,7 +4633,7 @@
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4279,7 +4648,7 @@
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4341,46 +4710,46 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>295</v>
+        <v>134</v>
       </c>
       <c r="D19" s="7">
-        <v>275863</v>
+        <v>138214</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>323</v>
+        <v>158</v>
       </c>
       <c r="I19" s="7">
-        <v>391871</v>
+        <v>169025</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>59</v>
+        <v>193</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M19" s="7">
-        <v>618</v>
+        <v>292</v>
       </c>
       <c r="N19" s="7">
-        <v>667735</v>
+        <v>307239</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -4404,7 +4773,7 @@
         <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4413,13 +4782,13 @@
         <v>973</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>66</v>
+        <v>197</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4428,13 +4797,13 @@
         <v>973</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,10 +4812,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>295</v>
+        <v>134</v>
       </c>
       <c r="D21" s="7">
-        <v>275863</v>
+        <v>138214</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>13</v>
@@ -4458,10 +4827,10 @@
         <v>13</v>
       </c>
       <c r="H21" s="7">
-        <v>324</v>
+        <v>159</v>
       </c>
       <c r="I21" s="7">
-        <v>392844</v>
+        <v>169998</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>13</v>
@@ -4473,10 +4842,10 @@
         <v>13</v>
       </c>
       <c r="M21" s="7">
-        <v>619</v>
+        <v>293</v>
       </c>
       <c r="N21" s="7">
-        <v>668708</v>
+        <v>308212</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>
@@ -4490,55 +4859,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>495</v>
+        <v>161</v>
       </c>
       <c r="D22" s="7">
-        <v>498229</v>
+        <v>137649</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H22" s="7">
-        <v>524</v>
+        <v>165</v>
       </c>
       <c r="I22" s="7">
-        <v>614864</v>
+        <v>222846</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>185</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>186</v>
+        <v>64</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M22" s="7">
-        <v>1019</v>
+        <v>326</v>
       </c>
       <c r="N22" s="7">
-        <v>1113092</v>
+        <v>360496</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4559,37 +4928,37 @@
         <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>83</v>
+        <v>202</v>
       </c>
       <c r="H23" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>2062</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>190</v>
+        <v>71</v>
       </c>
       <c r="M23" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>2062</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4598,63 +4967,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>161</v>
+      </c>
+      <c r="D24" s="7">
+        <v>137649</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="7">
+        <v>165</v>
+      </c>
+      <c r="I24" s="7">
+        <v>222846</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="7">
+        <v>326</v>
+      </c>
+      <c r="N24" s="7">
+        <v>360496</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
         <v>495</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D25" s="7">
         <v>498229</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="7">
+        <v>524</v>
+      </c>
+      <c r="I25" s="7">
+        <v>614864</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1019</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1113092</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2062</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2062</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>495</v>
+      </c>
+      <c r="D27" s="7">
+        <v>498229</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7">
         <v>526</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>616926</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="7">
         <v>1021</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>1115154</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>108</v>
+      <c r="O27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
